--- a/biology/Mycologie/Rhodotus_palmatus/Rhodotus_palmatus.xlsx
+++ b/biology/Mycologie/Rhodotus_palmatus/Rhodotus_palmatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhodotus palmatus est une espèce de champignons basidiomycètes de la famille des Physalacriaceae et du genre Rhodotus. 
 Rhodutus palmatus n’est pas classé en tant que champignon comestible, mais il n’est pas mortel. 
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sporophore est composé d'un pied dépourvu d'anneau et de volve, et d'un chapeau. Le chapeau est d'abord convexe à l'état jeune, avant de s’aplatir un peu avec l'âge, et il atteint généralement une largeur de 2 à 6 centimètres. Les bords du chapeau sont involutés et la surface de la cuticule est profondément réticulée. Entre les crêtes, la couleur est variable ; selon les conditions d'éclairage pendant son développement, elle peut aller de saumon orangé au rose au rouge. La texture de la cuticule est gélatineuse, et la chair est ferme mais caoutchouteuse, et de couleur rosâtre.
 Les lames sont adnées au stipe, épaisses et serrées. Certaines des lames ne s'étendent pas sur toute la distance entre la marge et le pied, plus courtes ; ces lames, appelées lamellules, forment deux à quatre groupes de longueurs sensiblement égales.
@@ -547,7 +561,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon les sources consultées, la comestibilité des Rhodotus palmatus est généralement répertoriée comme inconnue ou non comestible. L'espèce n'a pas d'odeur distincte, et un goût amer, même si une description anticipée décrivait le goût comme «doux».[précision nécessaire] 
 </t>
@@ -578,7 +594,9 @@
           <t>Activité antimicrobienne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cadre d'une étude espagnole[Laquelle ?] pour évaluer les activités antimicrobiennes des champignons, Rhodotus palmatus a été l'une des 204 espèces étudiées.  L'utilisation de procédés standards de laboratoire pour déterminer la sensibilité aux antimicrobiens, le champignon a démontré qu'il présente une activité antibactérienne modérée contre le Bacillus subtilis et une faible activité antifongique contre deux Saccharomyces cerevisiae et Aspergillus fumigatus.
 </t>
@@ -609,7 +627,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhodotus palmatus est saprophage, ce qui signifie qu'il se nourrit à partir d'éléments nutritifs de la matière organique en décomposition. Il pousse dispersé ou grégaire sur des tas de feuillus moisis, tels que le tilleul, l'érable et surtout sur l'orme; en Europe, il est connu pour se développer sur marronnier. Il préfère les zones qui sont périodiquement inondées et qui reçoivent peu de soleil, comme les zones ombragées de la canopée. 
 Rhodotus palmatus se développe dans la fraicheur et la météo humide, du printemps à l'automne aux États-Unis, ou de l'automne à l'hiver en Grande-Bretagne et en Europe. 
@@ -642,7 +662,9 @@
           <t>Besoins de lumière</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La lumière infra-rouge du spectre visible semble nécessaire pour le développement de sporophores de Rhodotus palmatus, contrairement à l'exigence typique de la lumière bleue nécessaire à beaucoup d'autres espèces de champignons. La fructification a lieu en présence de lumière verte, jaune ou rouge avec des longueurs d'onde supérieures à 500  nm, mais seulement quand la lumière bleue (sous 500 nm) est absente. Par conséquent, phénotypique des variations observées dans le domaine comme la taille, la forme, et une palette de couleur peut être influencée par différentes conditions de couleur et intensité de lumière. Par exemple, les spécimens cultivés en laboratoire sous la lumière verte avaient des hyménophore avec des stipes courts et droits et orange pâle, des crêtes bien développées et des creux profonds, et une apparence semblable aux spécimens trouvés dans les champs et qui poussaient sous un couvert de feuilles. Cultivées en laboratoire des échantillons sous  lumière ambre étaient orange vif, avec une réticulation moins prononcée. De même, les échantillons récoltés en automne sur le terrain, après que les feuilles sont tombées, étaient sont plus orange à orange-rose.
 </t>
@@ -673,7 +695,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1980 en Europe, l'augmentation des niveaux de pollution de l'air, ainsi que le changement de l'utilisation des pratiques agricoles a coïncidé avec la baisse des populations de certains champignons. En conséquence, un certain nombre d'initiatives de conservation de champignons ont été lancées afin de mieux comprendre la biodiversité fongique, comme en octobre 2007, où 31 pays européens ont décrété une liste rouge  des espèces menacées de champignons. Rhodotus palmatus est une espèce listée comme en danger critique, en danger, ou presque menacé (ou l'équivalent) dans 12 pays européens. Dans les pays baltes, Estonie, Lettonie et Lituanie, il est considéré comme disparu ou probablement éteint. Il a est également l'une des 35 espèces de champignons qui a obtenu la protection juridique en Hongrie en 2005, ce qui en fait une infraction de le ramasser. 
 </t>
